--- a/figures/source_data/source_ED_Fig.4a.xlsx
+++ b/figures/source_data/source_ED_Fig.4a.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,17 +430,32 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>annot</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>colour</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>full_name</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>fold.enrichment</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>colour2</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,31 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q2">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S2">
         <v>5.77012882447665</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -562,16 +592,31 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q3">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S3">
         <v>7.72529644268775</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -627,16 +672,31 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q4">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S4">
         <v>4.31049149338374</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -692,16 +752,31 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q5">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S5">
         <v>3.1866847826087</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -757,16 +832,31 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q6">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S6">
         <v>2.02329192546584</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -822,16 +912,31 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q7">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S7">
         <v>11.3304347826087</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -887,16 +992,31 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q8">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S8">
         <v>1.79603812224323</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -952,16 +1072,31 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q9">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S9">
         <v>14.1630434782609</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1017,16 +1152,31 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q10">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S10">
         <v>9.44202898550725</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1082,16 +1232,31 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>go_abund_up</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q11">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S11">
         <v>9.44202898550725</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1147,16 +1312,31 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q12">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S12">
         <v>11.7579983593109</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1212,16 +1392,31 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q13">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S13">
         <v>7.99009433962264</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1277,16 +1472,31 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q14">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S14">
         <v>7.02425876010782</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1342,16 +1552,31 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q15">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S15">
         <v>10.9266247379455</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1407,16 +1632,31 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q16">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S16">
         <v>10.9266247379455</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1472,16 +1712,31 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q17">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S17">
         <v>14.7509433962264</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1537,16 +1792,31 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q18">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S18">
         <v>2.51232612587798</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1602,16 +1872,31 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q19">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S19">
         <v>8.19496855345912</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1667,16 +1952,31 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q20">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S20">
         <v>12.2924528301887</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1732,16 +2032,31 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q21">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S21">
         <v>24.5849056603774</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1797,16 +2112,31 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q22">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S22">
         <v>24.5849056603774</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1862,16 +2192,31 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q23">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S23">
         <v>16.3899371069182</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1927,16 +2272,31 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q24">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S24">
         <v>6.70497427101201</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1992,16 +2352,31 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q25">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S25">
         <v>12.2924528301887</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2057,16 +2432,31 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q26">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S26">
         <v>2.36531162330161</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2122,16 +2512,31 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q27">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S27">
         <v>18.438679245283</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2187,16 +2592,31 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q28">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S28">
         <v>24.5849056603774</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2252,16 +2672,31 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q29">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S29">
         <v>16.3899371069182</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2317,16 +2752,31 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q30">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S30">
         <v>2.86823899371069</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2382,16 +2832,31 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q31">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S31">
         <v>12.2924528301887</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2447,16 +2912,31 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q32">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S32">
         <v>6.26674065852756</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2512,16 +2992,31 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q33">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S33">
         <v>4.78926733643715</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2577,16 +3072,31 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q34">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S34">
         <v>16.3899371069182</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2642,16 +3152,31 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q35">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S35">
         <v>9.455732946298991</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2707,16 +3232,31 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q36">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S36">
         <v>8.78032345013477</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2772,16 +3312,31 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q37">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S37">
         <v>24.5849056603774</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2837,16 +3392,31 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q38">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S38">
         <v>7.56458635703919</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2902,16 +3472,31 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q39">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S39">
         <v>24.5849056603774</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2967,16 +3552,31 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q40">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S40">
         <v>10.5363881401617</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3032,16 +3632,31 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q41">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S41">
         <v>9.21933962264151</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3097,16 +3712,31 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q42">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S42">
         <v>8.19496855345912</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3162,16 +3792,31 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
+          <t>go_abund_down</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q43">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S43">
         <v>6.14622641509434</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3227,16 +3872,31 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q44">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S44">
         <v>7.84939759036145</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3292,16 +3952,31 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q45">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S45">
         <v>12.5590361445783</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3357,16 +4032,31 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q46">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S46">
         <v>4.48537005163511</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3422,16 +4112,31 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q47">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S47">
         <v>11.7740963855422</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3487,16 +4192,31 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q48">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S48">
         <v>4.48537005163511</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3552,16 +4272,31 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q49">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S49">
         <v>3.92469879518072</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3617,16 +4352,31 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q50">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S50">
         <v>4.61729270021261</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3682,16 +4432,31 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q51">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S51">
         <v>15.6987951807229</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3747,16 +4512,31 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q52">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S52">
         <v>7.84939759036144</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3812,16 +4592,31 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q53">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S53">
         <v>15.6987951807229</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3877,16 +4672,31 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q54">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S54">
         <v>2.61646586345382</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3942,16 +4752,31 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q55">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S55">
         <v>13.4561101549053</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4007,16 +4832,31 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q56">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S56">
         <v>3.02627376977791</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4072,16 +4912,31 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q57">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S57">
         <v>1.64768695774351</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4137,16 +4992,31 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q58">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S58">
         <v>8.97074010327022</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4202,16 +5072,31 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q59">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S59">
         <v>3.80576852866009</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4267,16 +5152,31 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
           <t>respiration</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q60">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S60">
         <v>15.6987951807229</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>dodgerblue3</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4332,16 +5232,31 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q61">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S61">
         <v>4.0776091378501</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4397,16 +5312,31 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q62">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S62">
         <v>8.56297918948521</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4462,16 +5392,31 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q63">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S63">
         <v>12.5590361445783</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4527,16 +5472,31 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q64">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S64">
         <v>1.9279222151765</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4592,16 +5552,31 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q65">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S65">
         <v>6.97724230254351</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4657,16 +5632,31 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q66">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S66">
         <v>3.92469879518072</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4722,16 +5712,31 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q67">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S67">
         <v>7.84939759036144</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4787,16 +5792,31 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q68">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S68">
         <v>15.6987951807229</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4852,16 +5872,31 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
+          <t>go_stab_down</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q69">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S69">
         <v>15.6987951807229</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4917,16 +5952,31 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q70">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S70">
         <v>5.08262411347518</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4982,16 +6032,31 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q71">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S71">
         <v>4.71887732005432</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -5047,16 +6112,31 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q72">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S72">
         <v>3.22365165759525</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -5112,16 +6192,31 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q73">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S73">
         <v>1.55157383899885</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -5177,16 +6272,31 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q74">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S74">
         <v>5.2806484295846</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -5242,16 +6352,31 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q75">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S75">
         <v>27.7234042553191</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -5307,16 +6432,31 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
           <t>metal homeostasis</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q76">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S76">
         <v>2.66966115051221</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -5372,16 +6512,31 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
+          <t>go_stab_up</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
           <t>other</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Biological Process</t>
-        </is>
-      </c>
-      <c r="Q77">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>darkgreen</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Biological Process</t>
+        </is>
+      </c>
+      <c r="S77">
         <v>6.93085106382979</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
   </sheetData>
